--- a/data/trans_orig/P16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E3DEE6-219B-43E8-8A24-28EE6203A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3965CA1-C8AD-4C0C-BA11-B5550E5C034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F19DF19-B4AE-4764-8673-F20171E99D3B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B975820B-A6E7-4FA0-B4A8-C95D7E1C1736}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1390 +197,1372 @@
     <t>13,57%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>15,0%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>82,15%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>83,68%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>33,6%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>66,4%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
     <t>34,66%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>31,43%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>68,57%</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC59877-8076-4A4F-8B1B-6D310AA294B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA31A60-D33D-4089-B93D-5A361D836D93}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,7 +3076,7 @@
         <v>2749</v>
       </c>
       <c r="D23" s="7">
-        <v>2819731</v>
+        <v>2819732</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3124,7 +3106,7 @@
         <v>5263</v>
       </c>
       <c r="N23" s="7">
-        <v>5392311</v>
+        <v>5392312</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3145,7 +3127,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3175,7 +3157,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3211,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94816CB-E223-42BE-8504-8F952DA0F2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F1BF6F-1BF3-47C7-94ED-4F2D075D104B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3508,10 +3490,10 @@
         <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -3520,13 +3502,13 @@
         <v>250049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3523,13 @@
         <v>585049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3556,13 +3538,13 @@
         <v>460354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1001</v>
@@ -3571,13 +3553,13 @@
         <v>1045402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3627,13 @@
         <v>99277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -3660,13 +3642,13 @@
         <v>217722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>300</v>
@@ -3675,13 +3657,13 @@
         <v>316999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3678,13 @@
         <v>580777</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -3711,13 +3693,13 @@
         <v>490915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1014</v>
@@ -3726,13 +3708,13 @@
         <v>1071692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3782,13 @@
         <v>101619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -3815,13 +3797,13 @@
         <v>196048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -3830,13 +3812,13 @@
         <v>297667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3833,13 @@
         <v>512998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -3866,13 +3848,13 @@
         <v>418024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -3881,13 +3863,13 @@
         <v>931022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,10 +4250,10 @@
         <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1099</v>
@@ -4280,13 +4262,13 @@
         <v>1188971</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1667</v>
@@ -4295,13 +4277,13 @@
         <v>1800354</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4304,7 @@
         <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>2192</v>
@@ -4331,13 +4313,13 @@
         <v>2362023</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>4827</v>
@@ -4346,10 +4328,10 @@
         <v>5171820</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>267</v>
@@ -4430,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B766AB-8B6F-402B-B634-A5ACEE39701D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F430A1D-624C-460E-8267-5F5129CE6410}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5052,10 +5034,10 @@
         <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5052,13 @@
         <v>520851</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -5085,28 +5067,28 @@
         <v>459679</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>895</v>
       </c>
       <c r="N14" s="7">
-        <v>980530</v>
+        <v>980531</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5130,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5174,13 +5156,13 @@
         <v>108503</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5189,13 +5171,13 @@
         <v>195756</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -5204,13 +5186,13 @@
         <v>304259</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5207,13 @@
         <v>369415</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5240,13 +5222,13 @@
         <v>301093</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>588</v>
@@ -5255,13 +5237,13 @@
         <v>670508</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5311,13 @@
         <v>142802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -5344,13 +5326,13 @@
         <v>359204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -5359,13 +5341,13 @@
         <v>502006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5362,13 @@
         <v>448526</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>352</v>
@@ -5395,13 +5377,13 @@
         <v>418727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>824</v>
@@ -5410,13 +5392,13 @@
         <v>867253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5466,13 @@
         <v>640445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1013</v>
@@ -5499,13 +5481,13 @@
         <v>1102356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1625</v>
@@ -5514,13 +5496,13 @@
         <v>1742802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5517,13 @@
         <v>2753905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>2325</v>
@@ -5550,13 +5532,13 @@
         <v>2442186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4944</v>
@@ -5565,13 +5547,13 @@
         <v>5196090</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E7987A-99F3-4606-8833-AEB40A4B008D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457B021-756A-4E9B-B626-F2B575F08FA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5755,13 @@
         <v>41922</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5791,10 +5773,10 @@
         <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5803,13 +5785,13 @@
         <v>112782</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5806,13 @@
         <v>335757</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -5842,10 +5824,10 @@
         <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5854,13 +5836,13 @@
         <v>619854</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5910,13 @@
         <v>77497</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -5943,13 +5925,13 @@
         <v>103042</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -5958,13 +5940,13 @@
         <v>180539</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5961,13 @@
         <v>350899</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
@@ -5994,10 +5976,10 @@
         <v>395535</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>422</v>
@@ -6101,10 +6083,10 @@
         <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -6113,13 +6095,13 @@
         <v>279211</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6116,13 @@
         <v>455185</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>585</v>
@@ -6149,13 +6131,13 @@
         <v>406331</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -6164,13 +6146,13 @@
         <v>861516</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6220,13 @@
         <v>170856</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
@@ -6253,13 +6235,13 @@
         <v>282787</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>599</v>
@@ -6268,13 +6250,13 @@
         <v>453644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6271,13 @@
         <v>553134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -6304,28 +6286,28 @@
         <v>464474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M14" s="7">
         <v>1207</v>
       </c>
       <c r="N14" s="7">
-        <v>1017608</v>
+        <v>1017607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6349,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6393,13 +6375,13 @@
         <v>179468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
@@ -6408,13 +6390,13 @@
         <v>263315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -6423,13 +6405,13 @@
         <v>442782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6426,13 @@
         <v>420689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>555</v>
@@ -6459,13 +6441,13 @@
         <v>330261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -6474,13 +6456,13 @@
         <v>750950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6530,13 @@
         <v>228881</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1039</v>
@@ -6563,13 +6545,13 @@
         <v>661022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -6578,13 +6560,13 @@
         <v>889903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,16 +6578,16 @@
         <v>681</v>
       </c>
       <c r="D20" s="7">
-        <v>468873</v>
+        <v>468874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>668</v>
@@ -6614,13 +6596,13 @@
         <v>364974</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1349</v>
@@ -6629,13 +6611,13 @@
         <v>833847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,7 +6629,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6703,13 +6685,13 @@
         <v>800691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>2312</v>
@@ -6718,13 +6700,13 @@
         <v>1558171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>3196</v>
@@ -6733,13 +6715,13 @@
         <v>2358862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6736,13 @@
         <v>2584537</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>3049</v>
@@ -6769,13 +6751,13 @@
         <v>2245671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>5541</v>
@@ -6784,13 +6766,13 @@
         <v>4830208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3965CA1-C8AD-4C0C-BA11-B5550E5C034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F141AF40-3CB8-4383-AFE0-B712AA9FAA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B975820B-A6E7-4FA0-B4A8-C95D7E1C1736}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BE21E3D-428E-4039-986F-26433C2F0241}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,19 +197,19 @@
     <t>13,57%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>17,21%</t>
@@ -218,31 +218,31 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>19,45%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>80,55%</t>
   </si>
   <si>
     <t>84,79%</t>
@@ -254,1110 +254,1122 @@
     <t>14,9%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>87,95%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
     <t>75,52%</t>
   </si>
   <si>
@@ -1373,9 +1385,6 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
     <t>37,84%</t>
   </si>
   <si>
@@ -1392,9 +1401,6 @@
   </si>
   <si>
     <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
   </si>
   <si>
     <t>81,67%</t>
@@ -1974,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA31A60-D33D-4089-B93D-5A361D836D93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3164E47-C0D0-4522-9657-4154CF569F9E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2721,10 +2727,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -2733,13 +2739,13 @@
         <v>117002</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2748,13 +2754,13 @@
         <v>202621</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2775,13 @@
         <v>301090</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>282</v>
@@ -2784,13 +2790,13 @@
         <v>286984</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>588</v>
@@ -2799,13 +2805,13 @@
         <v>588075</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2873,13 +2879,13 @@
         <v>103907</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -2888,13 +2894,13 @@
         <v>250271</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -2903,13 +2909,13 @@
         <v>354178</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2930,13 @@
         <v>398559</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -2939,13 +2945,13 @@
         <v>426571</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>830</v>
@@ -2954,13 +2960,13 @@
         <v>825130</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3034,13 @@
         <v>455794</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>783</v>
@@ -3043,13 +3049,13 @@
         <v>806617</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1247</v>
@@ -3058,13 +3064,13 @@
         <v>1262411</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,16 +3082,16 @@
         <v>2749</v>
       </c>
       <c r="D23" s="7">
-        <v>2819732</v>
+        <v>2819731</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2514</v>
@@ -3094,13 +3100,13 @@
         <v>2572581</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5263</v>
@@ -3109,13 +3115,13 @@
         <v>5392312</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3133,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3171,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F1BF6F-1BF3-47C7-94ED-4F2D075D104B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5F7085-E03D-4F7E-92DE-DC47578EF54F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3323,13 @@
         <v>54142</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -3332,13 +3338,13 @@
         <v>96596</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
@@ -3347,13 +3353,13 @@
         <v>150738</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>398963</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>327</v>
@@ -3383,13 +3389,13 @@
         <v>332743</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>722</v>
@@ -3398,13 +3404,13 @@
         <v>731707</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3478,13 @@
         <v>101189</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3487,13 +3493,13 @@
         <v>148860</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -3502,13 +3508,13 @@
         <v>250049</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3529,13 @@
         <v>585049</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3538,13 +3544,13 @@
         <v>460354</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1001</v>
@@ -3553,13 +3559,13 @@
         <v>1045402</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3633,13 @@
         <v>99277</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -3642,13 +3648,13 @@
         <v>217722</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>300</v>
@@ -3657,13 +3663,13 @@
         <v>316999</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3684,13 @@
         <v>580777</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -3693,13 +3699,13 @@
         <v>490915</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1014</v>
@@ -3708,13 +3714,13 @@
         <v>1071692</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3788,13 @@
         <v>101619</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -3797,13 +3803,13 @@
         <v>196048</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -3812,13 +3818,13 @@
         <v>297667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3839,13 @@
         <v>512998</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -3848,13 +3854,13 @@
         <v>418024</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -3863,13 +3869,13 @@
         <v>931022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3943,13 @@
         <v>94547</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3952,13 +3958,13 @@
         <v>161843</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -3967,13 +3973,13 @@
         <v>256389</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3994,13 @@
         <v>333797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -4003,13 +4009,13 @@
         <v>285957</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>563</v>
@@ -4018,13 +4024,13 @@
         <v>619755</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4092,13 +4098,13 @@
         <v>160609</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -4107,13 +4113,13 @@
         <v>367902</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>486</v>
@@ -4122,13 +4128,13 @@
         <v>528511</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4149,13 @@
         <v>398213</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -4158,13 +4164,13 @@
         <v>374030</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -4173,13 +4179,13 @@
         <v>772243</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4253,13 @@
         <v>611383</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>1099</v>
@@ -4262,28 +4268,28 @@
         <v>1188971</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>1667</v>
       </c>
       <c r="N22" s="7">
-        <v>1800354</v>
+        <v>1800353</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4304,13 @@
         <v>2809796</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>2192</v>
@@ -4376,7 +4382,7 @@
         <v>6494</v>
       </c>
       <c r="N24" s="7">
-        <v>6972174</v>
+        <v>6972173</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4390,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F430A1D-624C-460E-8267-5F5129CE6410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0EE292-22A8-47B1-9085-24B7B5F54933}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5034,10 +5040,10 @@
         <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5058,13 @@
         <v>520851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -5067,28 +5073,28 @@
         <v>459679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>895</v>
       </c>
       <c r="N14" s="7">
-        <v>980531</v>
+        <v>980530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5156,13 +5162,13 @@
         <v>108503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5171,13 +5177,13 @@
         <v>195756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -5186,13 +5192,13 @@
         <v>304259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5213,13 @@
         <v>369415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5222,13 +5228,13 @@
         <v>301093</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>588</v>
@@ -5237,13 +5243,13 @@
         <v>670508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5311,13 +5317,13 @@
         <v>142802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -5326,13 +5332,13 @@
         <v>359204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -5341,13 +5347,13 @@
         <v>502006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5368,13 @@
         <v>448526</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>352</v>
@@ -5377,13 +5383,13 @@
         <v>418727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>824</v>
@@ -5392,13 +5398,13 @@
         <v>867253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5472,13 @@
         <v>640445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1013</v>
@@ -5481,13 +5487,13 @@
         <v>1102356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>1625</v>
@@ -5496,13 +5502,13 @@
         <v>1742802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5523,13 @@
         <v>2753905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>2325</v>
@@ -5532,13 +5538,13 @@
         <v>2442186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>4944</v>
@@ -5547,13 +5553,13 @@
         <v>5196090</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457B021-756A-4E9B-B626-F2B575F08FA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D490E-C9C6-4FC0-BC07-618389773F64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5761,13 @@
         <v>41922</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5773,10 +5779,10 @@
         <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5785,13 +5791,13 @@
         <v>112782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5812,13 @@
         <v>335757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -5824,10 +5830,10 @@
         <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5836,13 +5842,13 @@
         <v>619854</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5916,13 @@
         <v>77497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -5925,13 +5931,13 @@
         <v>103042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -5940,13 +5946,13 @@
         <v>180539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5967,13 @@
         <v>350899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
@@ -5976,13 +5982,13 @@
         <v>395535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>617</v>
@@ -5991,13 +5997,13 @@
         <v>746434</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6071,13 @@
         <v>102067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
@@ -6080,13 +6086,13 @@
         <v>177145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -6095,13 +6101,13 @@
         <v>279211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6122,13 @@
         <v>455185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>585</v>
@@ -6131,13 +6137,13 @@
         <v>406331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -6146,13 +6152,13 @@
         <v>861516</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6226,13 @@
         <v>170856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
@@ -6235,13 +6241,13 @@
         <v>282787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>599</v>
@@ -6250,13 +6256,13 @@
         <v>453644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6277,13 @@
         <v>553134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -6286,13 +6292,13 @@
         <v>464474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>1207</v>
@@ -6301,13 +6307,13 @@
         <v>1017607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6381,13 @@
         <v>179468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
@@ -6390,13 +6396,13 @@
         <v>263315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -6405,13 +6411,13 @@
         <v>442782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6432,13 @@
         <v>420689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>555</v>
@@ -6441,13 +6447,13 @@
         <v>330261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -6456,13 +6462,13 @@
         <v>750950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6530,13 +6536,13 @@
         <v>228881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1039</v>
@@ -6545,13 +6551,13 @@
         <v>661022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -6560,13 +6566,13 @@
         <v>889903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6587,13 @@
         <v>468874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>668</v>
@@ -6596,13 +6602,13 @@
         <v>364974</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1349</v>
@@ -6611,13 +6617,13 @@
         <v>833847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6691,13 @@
         <v>800691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>2312</v>
@@ -6700,13 +6706,13 @@
         <v>1558171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>3196</v>
@@ -6715,13 +6721,13 @@
         <v>2358862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6742,13 @@
         <v>2584537</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>3049</v>
@@ -6751,13 +6757,13 @@
         <v>2245671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M23" s="7">
         <v>5541</v>
@@ -6766,13 +6772,13 @@
         <v>4830208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F141AF40-3CB8-4383-AFE0-B712AA9FAA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF93417-D2F0-44B8-A51D-F490760418CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BE21E3D-428E-4039-986F-26433C2F0241}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{323DFF6F-8861-4664-B409-9A5AE8B9790F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1435 +140,1447 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>85,17%</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>16,37%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>83,63%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>33,5%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>81,67%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>62,16%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>66,5%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>65,32%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>31,43%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>68,57%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3164E47-C0D0-4522-9657-4154CF569F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE97B7-82FD-40CE-9556-029C53E18B94}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2727,10 +2739,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -2739,13 +2751,13 @@
         <v>117002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2754,13 +2766,13 @@
         <v>202621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2787,13 @@
         <v>301090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>282</v>
@@ -2790,13 +2802,13 @@
         <v>286984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>588</v>
@@ -2805,13 +2817,13 @@
         <v>588075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2891,13 @@
         <v>103907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -2894,13 +2906,13 @@
         <v>250271</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -2909,13 +2921,13 @@
         <v>354178</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2942,13 @@
         <v>398559</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -2945,13 +2957,13 @@
         <v>426571</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>830</v>
@@ -2960,13 +2972,13 @@
         <v>825130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3046,13 @@
         <v>455794</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>783</v>
@@ -3049,13 +3061,13 @@
         <v>806617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1247</v>
@@ -3064,13 +3076,13 @@
         <v>1262411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3097,13 @@
         <v>2819731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2514</v>
@@ -3100,28 +3112,28 @@
         <v>2572581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5263</v>
       </c>
       <c r="N23" s="7">
-        <v>5392312</v>
+        <v>5392311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3175,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5F7085-E03D-4F7E-92DE-DC47578EF54F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7EE8DE-FBC0-408E-90E6-9BE26FFD5F64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3335,13 @@
         <v>54142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -3338,13 +3350,13 @@
         <v>96596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
@@ -3353,13 +3365,13 @@
         <v>150738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3386,13 @@
         <v>398963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>327</v>
@@ -3389,13 +3401,13 @@
         <v>332743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>722</v>
@@ -3404,13 +3416,13 @@
         <v>731707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3490,13 @@
         <v>101189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3493,13 +3505,13 @@
         <v>148860</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -3508,13 +3520,13 @@
         <v>250049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3541,13 @@
         <v>585049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3544,13 +3556,13 @@
         <v>460354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1001</v>
@@ -3818,13 +3830,13 @@
         <v>297667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3851,13 @@
         <v>512998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -3854,13 +3866,13 @@
         <v>418024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -3869,13 +3881,13 @@
         <v>931022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3955,13 @@
         <v>94547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3958,13 +3970,13 @@
         <v>161843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -3973,13 +3985,13 @@
         <v>256389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4006,13 @@
         <v>333797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -4009,13 +4021,13 @@
         <v>285957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>563</v>
@@ -4024,13 +4036,13 @@
         <v>619755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4098,13 +4110,13 @@
         <v>160609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -4113,13 +4125,13 @@
         <v>367902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>486</v>
@@ -4128,13 +4140,13 @@
         <v>528511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4161,13 @@
         <v>398213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -4164,13 +4176,13 @@
         <v>374030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -4179,13 +4191,13 @@
         <v>772243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4265,13 @@
         <v>611383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1099</v>
@@ -4268,28 +4280,28 @@
         <v>1188971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1667</v>
       </c>
       <c r="N22" s="7">
-        <v>1800353</v>
+        <v>1800354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4316,13 @@
         <v>2809796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>2192</v>
@@ -4319,13 +4331,13 @@
         <v>2362023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>4827</v>
@@ -4334,10 +4346,10 @@
         <v>5171820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>267</v>
@@ -4382,7 +4394,7 @@
         <v>6494</v>
       </c>
       <c r="N24" s="7">
-        <v>6972173</v>
+        <v>6972174</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4396,7 +4408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0EE292-22A8-47B1-9085-24B7B5F54933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E0C65-B383-44A1-824C-7C219E247168}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5305,7 +5317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5505,10 +5517,10 @@
         <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5535,13 @@
         <v>2753905</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>2325</v>
@@ -5538,13 +5550,13 @@
         <v>2442186</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>4944</v>
@@ -5553,13 +5565,13 @@
         <v>5196090</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D490E-C9C6-4FC0-BC07-618389773F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439522C-7320-4BC0-B9F1-36FF17CFB232}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5773,13 @@
         <v>41922</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5779,10 +5791,10 @@
         <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>398</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5791,13 +5803,13 @@
         <v>112782</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5824,13 @@
         <v>335757</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -5830,7 +5842,7 @@
         <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>406</v>
@@ -5937,7 +5949,7 @@
         <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -5946,13 +5958,13 @@
         <v>180539</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5979,13 @@
         <v>350899</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
@@ -5982,13 +5994,13 @@
         <v>395535</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>617</v>
@@ -5997,13 +6009,13 @@
         <v>746434</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6083,13 @@
         <v>102067</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
@@ -6086,13 +6098,13 @@
         <v>177145</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -6101,13 +6113,13 @@
         <v>279211</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6134,13 @@
         <v>455185</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>585</v>
@@ -6137,13 +6149,13 @@
         <v>406331</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -6152,13 +6164,13 @@
         <v>861516</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6238,13 @@
         <v>170856</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
@@ -6241,13 +6253,13 @@
         <v>282787</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>599</v>
@@ -6256,10 +6268,10 @@
         <v>453644</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>452</v>
@@ -6280,10 +6292,10 @@
         <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -6292,28 +6304,28 @@
         <v>464474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1207</v>
       </c>
       <c r="N14" s="7">
-        <v>1017607</v>
+        <v>1017608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6367,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6393,13 @@
         <v>179468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
@@ -6396,13 +6408,13 @@
         <v>263315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -6411,13 +6423,13 @@
         <v>442782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6444,13 @@
         <v>420689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>555</v>
@@ -6447,13 +6459,13 @@
         <v>330261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -6462,10 +6474,10 @@
         <v>750950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>477</v>
@@ -6524,7 +6536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6557,7 +6569,7 @@
         <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -6566,13 +6578,13 @@
         <v>889903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,16 +6596,16 @@
         <v>681</v>
       </c>
       <c r="D20" s="7">
-        <v>468874</v>
+        <v>468873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>668</v>
@@ -6602,13 +6614,13 @@
         <v>364974</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>1349</v>
@@ -6617,13 +6629,13 @@
         <v>833847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6647,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6703,13 @@
         <v>800691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>2312</v>
@@ -6706,13 +6718,13 @@
         <v>1558171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>3196</v>
@@ -6721,13 +6733,13 @@
         <v>2358862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6754,13 @@
         <v>2584537</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>3049</v>
@@ -6757,13 +6769,13 @@
         <v>2245671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>5541</v>
@@ -6772,13 +6784,13 @@
         <v>4830208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF93417-D2F0-44B8-A51D-F490760418CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CA4309-0EF1-48F0-B98E-E044FA4BFA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{323DFF6F-8861-4664-B409-9A5AE8B9790F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB09B854-6086-4065-A971-465E955B6EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="581">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>8,74%</t>
@@ -191,7 +191,7 @@
     <t>90,16%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>13,57%</t>
@@ -248,7 +248,7 @@
     <t>85,0%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>14,9%</t>
@@ -305,7 +305,7 @@
     <t>83,05%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>22,14%</t>
@@ -362,216 +362,279 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>20,68%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>79,32%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
     <t>80,7%</t>
   </si>
   <si>
@@ -743,58 +806,106 @@
     <t>73,77%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>17,87%</t>
@@ -1070,9 +1181,6 @@
     <t>19,1%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
     <t>39,4%</t>
   </si>
   <si>
@@ -1094,9 +1202,6 @@
     <t>77,3%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
     <t>80,9%</t>
   </si>
   <si>
@@ -1118,58 +1223,100 @@
     <t>71,63%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
   </si>
   <si>
     <t>18,87%</t>
@@ -1223,364 +1370,418 @@
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE97B7-82FD-40CE-9556-029C53E18B94}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53082433-0EB7-4A8A-ADAD-CBE79E4DD664}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2885,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>103907</v>
+        <v>48568</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2900,10 +3101,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>250271</v>
+        <v>110958</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2915,10 +3116,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>354178</v>
+        <v>159525</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2936,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>410</v>
+        <v>251</v>
       </c>
       <c r="D20" s="7">
-        <v>398559</v>
+        <v>244015</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2951,10 +3152,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="I20" s="7">
-        <v>426571</v>
+        <v>231976</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2966,10 +3167,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>830</v>
+        <v>502</v>
       </c>
       <c r="N20" s="7">
-        <v>825130</v>
+        <v>475992</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2987,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3203,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,55 +3235,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>464</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>455794</v>
+        <v>55339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>783</v>
+        <v>121</v>
       </c>
       <c r="I22" s="7">
-        <v>806617</v>
+        <v>139314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1247</v>
+        <v>182</v>
       </c>
       <c r="N22" s="7">
-        <v>1262411</v>
+        <v>194653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3292,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2749</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>2819731</v>
+        <v>154544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2514</v>
+        <v>169</v>
       </c>
       <c r="I23" s="7">
-        <v>2572581</v>
+        <v>194594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5263</v>
+        <v>328</v>
       </c>
       <c r="N23" s="7">
-        <v>5392311</v>
+        <v>349138</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3343,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>464</v>
+      </c>
+      <c r="D25" s="7">
+        <v>455794</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>783</v>
+      </c>
+      <c r="I25" s="7">
+        <v>806617</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1247</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1262411</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2749</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2819731</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2514</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2572580</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5263</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5392311</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3568,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7EE8DE-FBC0-408E-90E6-9BE26FFD5F64}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D46875-099E-4434-BE4A-27893A7EEE7A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3692,13 @@
         <v>54142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -3350,13 +3707,13 @@
         <v>96596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
@@ -3365,13 +3722,13 @@
         <v>150738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3743,13 @@
         <v>398963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>327</v>
@@ -3401,13 +3758,13 @@
         <v>332743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>722</v>
@@ -3416,13 +3773,13 @@
         <v>731707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3847,13 @@
         <v>101189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -3505,13 +3862,13 @@
         <v>148860</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -3520,13 +3877,13 @@
         <v>250049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3898,13 @@
         <v>585049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3556,13 +3913,13 @@
         <v>460354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>1001</v>
@@ -3571,13 +3928,13 @@
         <v>1045402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +4002,13 @@
         <v>99277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -3660,13 +4017,13 @@
         <v>217722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>300</v>
@@ -3675,13 +4032,13 @@
         <v>316999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +4053,13 @@
         <v>580777</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -3711,13 +4068,13 @@
         <v>490915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>1014</v>
@@ -3726,13 +4083,13 @@
         <v>1071692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4157,13 @@
         <v>101619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -3815,13 +4172,13 @@
         <v>196048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -3830,13 +4187,13 @@
         <v>297667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +4208,13 @@
         <v>512998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -3866,13 +4223,13 @@
         <v>418024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -3881,13 +4238,13 @@
         <v>931022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4312,13 @@
         <v>94547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3970,13 +4327,13 @@
         <v>161843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -3985,13 +4342,13 @@
         <v>256389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4363,13 @@
         <v>333797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -4021,13 +4378,13 @@
         <v>285957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>563</v>
@@ -4036,13 +4393,13 @@
         <v>619755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4461,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>160609</v>
+        <v>82709</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
-        <v>344</v>
+        <v>157</v>
       </c>
       <c r="I19" s="7">
-        <v>367902</v>
+        <v>162023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
-        <v>486</v>
+        <v>229</v>
       </c>
       <c r="N19" s="7">
-        <v>528511</v>
+        <v>244732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,49 +4512,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>361</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>398213</v>
+        <v>227077</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="I20" s="7">
-        <v>374030</v>
+        <v>191973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>710</v>
+        <v>397</v>
       </c>
       <c r="N20" s="7">
-        <v>772243</v>
+        <v>419050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558822</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4578,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741932</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1196</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1300754</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,55 +4610,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>568</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>611383</v>
+        <v>77900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>1099</v>
+        <v>187</v>
       </c>
       <c r="I22" s="7">
-        <v>1188971</v>
+        <v>205879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" s="7">
         <v>257</v>
       </c>
-      <c r="M22" s="7">
-        <v>1667</v>
-      </c>
       <c r="N22" s="7">
-        <v>1800354</v>
+        <v>283779</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2635</v>
+        <v>151</v>
       </c>
       <c r="D23" s="7">
-        <v>2809796</v>
+        <v>171136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>2192</v>
+        <v>162</v>
       </c>
       <c r="I23" s="7">
-        <v>2362023</v>
+        <v>182057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>4827</v>
+        <v>313</v>
       </c>
       <c r="N23" s="7">
-        <v>5171820</v>
+        <v>353193</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4718,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387936</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>568</v>
+      </c>
+      <c r="D25" s="7">
+        <v>611383</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1099</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1188971</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1667</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1800354</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2635</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2809796</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2192</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2362024</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4827</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5171820</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3203</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421179</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3291</v>
       </c>
-      <c r="I24" s="7">
-        <v>3550994</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3550995</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6494</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6972174</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E0C65-B383-44A1-824C-7C219E247168}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503FB106-12C9-4D5D-9078-DD7875A37AA9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +5067,13 @@
         <v>49669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -4569,13 +5082,13 @@
         <v>68631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -4584,13 +5097,13 @@
         <v>118300</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +5118,13 @@
         <v>369794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -4620,13 +5133,13 @@
         <v>327124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>682</v>
@@ -4635,13 +5148,13 @@
         <v>696918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5222,13 @@
         <v>98400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -4724,13 +5237,13 @@
         <v>131998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -4739,13 +5252,13 @@
         <v>230397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +5273,13 @@
         <v>492096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -4775,13 +5288,13 @@
         <v>431546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -4790,13 +5303,13 @@
         <v>923643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5377,13 @@
         <v>115875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -4879,13 +5392,13 @@
         <v>157370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>267</v>
@@ -4894,13 +5407,13 @@
         <v>273245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +5428,13 @@
         <v>553222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -4930,13 +5443,13 @@
         <v>504016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>1036</v>
@@ -4945,13 +5458,13 @@
         <v>1057238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5532,13 @@
         <v>125197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -5034,13 +5547,13 @@
         <v>189398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>289</v>
@@ -5049,13 +5562,13 @@
         <v>314595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5583,13 @@
         <v>520851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -5085,13 +5598,13 @@
         <v>459679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>895</v>
@@ -5100,13 +5613,13 @@
         <v>980530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5687,13 @@
         <v>108503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5189,13 +5702,13 @@
         <v>195756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -5204,13 +5717,13 @@
         <v>304259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5738,13 @@
         <v>369415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5240,13 +5753,13 @@
         <v>301093</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>588</v>
@@ -5255,13 +5768,13 @@
         <v>670508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5836,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>142802</v>
+        <v>59739</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="I19" s="7">
-        <v>359204</v>
+        <v>162679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
-        <v>458</v>
+        <v>211</v>
       </c>
       <c r="N19" s="7">
-        <v>502006</v>
+        <v>222418</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5887,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>448526</v>
+        <v>274591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>418727</v>
+        <v>215083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
-        <v>824</v>
+        <v>468</v>
       </c>
       <c r="N20" s="7">
-        <v>867253</v>
+        <v>489674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5953,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +5968,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,55 +5985,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>612</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>640445</v>
+        <v>83063</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1013</v>
+        <v>149</v>
       </c>
       <c r="I22" s="7">
-        <v>1102356</v>
+        <v>196525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>1625</v>
+        <v>247</v>
       </c>
       <c r="N22" s="7">
-        <v>1742802</v>
+        <v>279587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6042,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2619</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>2753905</v>
+        <v>173935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>2325</v>
+        <v>152</v>
       </c>
       <c r="I23" s="7">
-        <v>2442186</v>
+        <v>203644</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>4944</v>
+        <v>356</v>
       </c>
       <c r="N23" s="7">
-        <v>5196090</v>
+        <v>377580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,63 +6093,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>612</v>
+      </c>
+      <c r="D25" s="7">
+        <v>640445</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1102356</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1625</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1742802</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2619</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2753905</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2325</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2442186</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4944</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5196090</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5649,8 +6318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439522C-7320-4BC0-B9F1-36FF17CFB232}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB39C8E-96C6-48D7-BD9E-4B5F1F8A9864}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5666,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5770,46 +6439,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>41922</v>
+        <v>46435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>70860</v>
+        <v>62773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>112782</v>
+        <v>109208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6490,46 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>335757</v>
+        <v>353552</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
       </c>
       <c r="I5" s="7">
-        <v>284097</v>
+        <v>250427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>619854</v>
+        <v>603979</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6541,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6556,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5902,7 +6571,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5925,46 +6594,46 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>77497</v>
+        <v>80559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>103042</v>
+        <v>97484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>180539</v>
+        <v>178043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6645,46 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>350899</v>
+        <v>342988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
       </c>
       <c r="I8" s="7">
-        <v>395535</v>
+        <v>414020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>617</v>
       </c>
       <c r="N8" s="7">
-        <v>746434</v>
+        <v>757008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6696,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6711,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6057,7 +6726,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6080,46 +6749,46 @@
         <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>102067</v>
+        <v>101343</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
       </c>
       <c r="I10" s="7">
-        <v>177145</v>
+        <v>166970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
       </c>
       <c r="N10" s="7">
-        <v>279211</v>
+        <v>268313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,46 +6800,46 @@
         <v>446</v>
       </c>
       <c r="D11" s="7">
-        <v>455185</v>
+        <v>434995</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>585</v>
       </c>
       <c r="I11" s="7">
-        <v>406331</v>
+        <v>375498</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
       </c>
       <c r="N11" s="7">
-        <v>861516</v>
+        <v>810493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6851,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6866,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6212,7 +6881,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6235,46 +6904,46 @@
         <v>167</v>
       </c>
       <c r="D13" s="7">
-        <v>170856</v>
+        <v>163677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>432</v>
       </c>
       <c r="I13" s="7">
-        <v>282787</v>
+        <v>262044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>599</v>
       </c>
       <c r="N13" s="7">
-        <v>453644</v>
+        <v>425721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,46 +6955,46 @@
         <v>498</v>
       </c>
       <c r="D14" s="7">
-        <v>553134</v>
+        <v>724109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
       </c>
       <c r="I14" s="7">
-        <v>464474</v>
+        <v>450837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>1207</v>
       </c>
       <c r="N14" s="7">
-        <v>1017608</v>
+        <v>1174946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +7006,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +7021,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6367,7 +7036,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,46 +7059,46 @@
         <v>200</v>
       </c>
       <c r="D16" s="7">
-        <v>179468</v>
+        <v>170006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
       </c>
       <c r="I16" s="7">
-        <v>263315</v>
+        <v>242091</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
       </c>
       <c r="N16" s="7">
-        <v>442782</v>
+        <v>412097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,46 +7110,46 @@
         <v>463</v>
       </c>
       <c r="D17" s="7">
-        <v>420689</v>
+        <v>391228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>555</v>
       </c>
       <c r="I17" s="7">
-        <v>330261</v>
+        <v>302796</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
       </c>
       <c r="N17" s="7">
-        <v>750950</v>
+        <v>694024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +7161,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7176,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6522,7 +7191,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1193732</v>
+        <v>1106121</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6542,49 +7211,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>347</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7">
-        <v>228881</v>
+        <v>101263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
-        <v>1039</v>
+        <v>437</v>
       </c>
       <c r="I19" s="7">
-        <v>661022</v>
+        <v>417722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
-        <v>1386</v>
+        <v>594</v>
       </c>
       <c r="N19" s="7">
-        <v>889903</v>
+        <v>518985</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +7262,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>681</v>
+        <v>413</v>
       </c>
       <c r="D20" s="7">
-        <v>468873</v>
+        <v>266902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
-        <v>668</v>
+        <v>390</v>
       </c>
       <c r="I20" s="7">
-        <v>364974</v>
+        <v>190646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
-        <v>1349</v>
+        <v>803</v>
       </c>
       <c r="N20" s="7">
-        <v>833847</v>
+        <v>457548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7328,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025996</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6674,10 +7343,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723750</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,55 +7360,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>884</v>
+        <v>190</v>
       </c>
       <c r="D22" s="7">
-        <v>800691</v>
+        <v>113511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
-        <v>2312</v>
+        <v>602</v>
       </c>
       <c r="I22" s="7">
-        <v>1558171</v>
+        <v>285297</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
-        <v>3196</v>
+        <v>792</v>
       </c>
       <c r="N22" s="7">
-        <v>2358862</v>
+        <v>398808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +7417,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2492</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7">
-        <v>2584537</v>
+        <v>169248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="H23" s="7">
-        <v>3049</v>
+        <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>2245671</v>
+        <v>139993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="M23" s="7">
-        <v>5541</v>
+        <v>546</v>
       </c>
       <c r="N23" s="7">
-        <v>4830208</v>
+        <v>309241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,63 +7468,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425290</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708049</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>884</v>
+      </c>
+      <c r="D25" s="7">
+        <v>776794</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2312</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1534383</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3196</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2311177</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2492</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2683023</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3049</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2124215</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5541</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4807238</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5361</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803842</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658598</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8737</v>
       </c>
-      <c r="N24" s="7">
-        <v>7189070</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7118415</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
